--- a/salesforce_user_accounts_feed.xlsx
+++ b/salesforce_user_accounts_feed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\Desktop\Files\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DharaniModeboiena\Downloads\Sample Data\Data execution sample file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B63B93C-47BC-4441-822E-D83B1BA103B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8245FCB2-7433-47BF-88C0-53F7882595F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>First name</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>user_role</t>
+  </si>
+  <si>
+    <t>User License</t>
   </si>
 </sst>
 </file>
@@ -147,10 +150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -434,22 +440,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,13 +467,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -476,14 +486,15 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -493,11 +504,12 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1"/>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -507,10 +519,11 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
     </row>

--- a/salesforce_user_accounts_feed.xlsx
+++ b/salesforce_user_accounts_feed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DharaniModeboiena\Downloads\Sample Data\Data execution sample file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DharaniModeboiena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8245FCB2-7433-47BF-88C0-53F7882595F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F0D5F7-4E05-44A0-A262-1924495B38A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>First name</t>
   </si>
@@ -85,13 +85,19 @@
   </si>
   <si>
     <t>User License</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Identity User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +109,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -158,6 +177,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -440,13 +465,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
@@ -454,9 +479,10 @@
     <col min="4" max="4" width="38.453125" customWidth="1"/>
     <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +501,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -493,8 +522,11 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -508,8 +540,11 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -525,6 +560,9 @@
       </c>
       <c r="F4" t="s">
         <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
